--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3539373.313971227</v>
+        <v>3536996.687023861</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>395.0980540215861</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>39.45655134471433</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>113.7922964278911</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>23.94563726208598</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>193.9481721195875</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>15.69797938778835</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>64.50612826256102</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>23.73664243899209</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>132.9066208399089</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>20.32640015958591</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>110.6362210220199</v>
       </c>
       <c r="U10" t="n">
-        <v>18.56489249210106</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>229.2938944146496</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>178.2642147042091</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>60.78102717027922</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="36">
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>126.9263824507425</v>
       </c>
       <c r="F40" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>127.606543552313</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.7871326503968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>861.3216348137582</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>861.3216348137582</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>861.3216348137582</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>861.3216348137582</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>450.3357300241507</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1604.395429084661</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>1230.929670823581</v>
       </c>
       <c r="Y2" t="n">
-        <v>861.3216348137582</v>
+        <v>1230.929670823581</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
@@ -4410,19 +4410,19 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380227</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694943</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
         <v>2239.046898434118</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1006.01552520271</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C4" t="n">
-        <v>837.079342274803</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>686.9627028624673</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>539.0496092800742</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>392.1596617821638</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>224.1731970904424</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>75.43429895394854</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074497</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X4" t="n">
-        <v>1408.45656917648</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="Y4" t="n">
-        <v>1187.66399003295</v>
+        <v>314.9273982680232</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1059.365742829027</v>
+        <v>809.2519436594666</v>
       </c>
       <c r="C5" t="n">
-        <v>690.4032258886157</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="D5" t="n">
-        <v>332.1375272818652</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E5" t="n">
-        <v>332.1375272818652</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>325.1920265326617</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>313.5276802973547</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4565,13 +4565,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>1959.45687396048</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868961</v>
+        <v>1585.9911156994</v>
       </c>
       <c r="Y5" t="n">
-        <v>1445.965582893149</v>
+        <v>1195.851783723588</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>898.2468199959889</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C7" t="n">
-        <v>729.310637068082</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>579.1939976557462</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>431.2809040733531</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>284.3909565754427</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>116.4044918837213</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
         <v>51.2467865680031</v>
@@ -4723,52 +4723,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1509.886307086047</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1286.907826280783</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>997.7894887846204</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>743.1050005787336</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037536</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959889</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>872.3258693613955</v>
+        <v>639.4419116165409</v>
       </c>
       <c r="C8" t="n">
-        <v>503.3633524209837</v>
+        <v>270.4793946761292</v>
       </c>
       <c r="D8" t="n">
-        <v>145.0976538142332</v>
+        <v>270.4793946761292</v>
       </c>
       <c r="E8" t="n">
-        <v>145.0976538142332</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>138.1521530650298</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4802,16 +4802,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816075</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4835,19 +4835,19 @@
         <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>2022.530799662409</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="X8" t="n">
-        <v>1649.065041401329</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="Y8" t="n">
-        <v>1258.925709425517</v>
+        <v>1026.041751680663</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495378</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281865</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.18296949591</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C10" t="n">
         <v>51.2467865680031</v>
@@ -4960,7 +4960,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4975,37 +4975,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1225.480207141839</v>
       </c>
       <c r="U10" t="n">
-        <v>1394.715222610545</v>
+        <v>936.3618696456771</v>
       </c>
       <c r="V10" t="n">
-        <v>1140.030734404658</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="W10" t="n">
-        <v>850.6135643676972</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X10" t="n">
-        <v>622.6240134696799</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.8314343261497</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5018,13 +5018,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,52 +5036,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452603</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718124</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326419</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,13 +5215,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5236,13 +5236,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5516,46 +5516,46 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5653,22 +5653,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2387.388512467613</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597619</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6455,13 +6455,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6479,31 +6479,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,22 +6953,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>366.9636532421613</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7151,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1559.490355317017</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.083634382039</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7625,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,34 +7661,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>193.3273467878343</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>54.95314511566465</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>255.8421700460949</v>
       </c>
       <c r="P9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.277957053354437e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>38.13892827624204</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>36.41624546988356</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>31.13893193492417</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.4657939283486</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>35.40333084624521</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>19.50758019582666</v>
       </c>
       <c r="F40" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>124.531099771515</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>45.44677382459261</v>
       </c>
       <c r="C46" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>691809.1007194667</v>
+        <v>691809.1007194668</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>673215.2723244029</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673215.2723244029</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="G2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="H2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="J2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132554</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,10 +26381,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26418,46 +26418,46 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731957</v>
+        <v>8117.312426732035</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426732025</v>
+        <v>8117.312426731997</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
+        <v>8117.312426731936</v>
+      </c>
+      <c r="J4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="J4" t="n">
-        <v>8117.312426732017</v>
-      </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731956</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731986</v>
+        <v>8117.312426731954</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731998</v>
+        <v>8117.312426731965</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426731956</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-582543.9191531658</v>
+        <v>-582543.9191531659</v>
       </c>
       <c r="C6" t="n">
-        <v>532207.8644227539</v>
+        <v>532207.864422754</v>
       </c>
       <c r="D6" t="n">
-        <v>532207.8644227539</v>
+        <v>532207.8644227544</v>
       </c>
       <c r="E6" t="n">
-        <v>129885.3208380702</v>
+        <v>129850.5829126342</v>
       </c>
       <c r="F6" t="n">
-        <v>637370.7624626164</v>
+        <v>637336.0245371809</v>
       </c>
       <c r="G6" t="n">
-        <v>637370.7624626164</v>
+        <v>637336.0245371803</v>
       </c>
       <c r="H6" t="n">
-        <v>637370.7624626162</v>
+        <v>637336.0245371806</v>
       </c>
       <c r="I6" t="n">
-        <v>637370.7624626167</v>
+        <v>637336.0245371807</v>
       </c>
       <c r="J6" t="n">
-        <v>469765.5846526334</v>
+        <v>469730.8467271979</v>
       </c>
       <c r="K6" t="n">
-        <v>637370.7624626162</v>
+        <v>637336.0245371808</v>
       </c>
       <c r="L6" t="n">
-        <v>637370.7624626162</v>
+        <v>637336.0245371808</v>
       </c>
       <c r="M6" t="n">
-        <v>504763.4687336895</v>
+        <v>504728.7308082536</v>
       </c>
       <c r="N6" t="n">
-        <v>637370.7624626163</v>
+        <v>637336.0245371806</v>
       </c>
       <c r="O6" t="n">
-        <v>637370.7624626162</v>
+        <v>637336.0245371806</v>
       </c>
       <c r="P6" t="n">
-        <v>637370.7624626161</v>
+        <v>637336.0245371806</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26796,10 +26796,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26814,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224135</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44964875136787</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>309.7844173726987</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>66.03968375404622</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>80.8509579418146</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>107.0703804428179</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>333.5429893296247</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>82.74538089256785</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>170.9258179227454</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>249.0237492323529</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>391.2213026133681</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>110.112474975192</v>
       </c>
       <c r="U10" t="n">
-        <v>267.6622616290995</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.424525727746915e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.496150991986756e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-8.424525727746915e-14</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30232,10 +30232,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31835,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963271</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>483.3274636075158</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>746.4857620875795</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>322.7581251332984</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,10 +32333,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>307.3280120589129</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462889</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>269.1634560719501</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045844</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>173.3851399586643</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>227.8611086463986</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>443.0068759113666</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>491.0077074256851</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>390.3778271117877</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>591.2668520422178</v>
       </c>
       <c r="P9" t="n">
-        <v>443.0068759113673</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164529</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>340.7312191630714</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>615.1440500042462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,10 +35981,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>167.3462379728913</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629557</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>127.0294221499318</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212511</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>90.0196696720396</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
